--- a/biology/Botanique/Aucuba/Aucuba.xlsx
+++ b/biology/Botanique/Aucuba/Aucuba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre botanique Aucuba regroupe quelques espèces d'arbustes originaires d'Asie centrale ou du Japon. La plus connue d'entre elles est Aucuba japonica, fréquemment plantée en haies ou en buissons, reconnaissable notamment à ses feuilles vertes et luisantes maculées de jaune pour la variété crotonifolia et variegata.
 L'aucuba du Japon fait partie des arbustes persistants couramment utilisé dans les jardins de thé.
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 Jul 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 Jul 2010) :
 Aucuba albopunctifolia F.T.Wang (1949)
 Aucuba chinensis Benth. (1861)
 Aucuba chlorascens F.T.Wang (1949)
@@ -527,7 +541,7 @@
 Aucuba japonica Thunb. (1783)
 Aucuba obcordata (Rehder) K.T.Fu ex W.K.Hu &amp; Soong (1981)
 Aucuba robusta W.P.Fang &amp; Soong, J. Sichuan Univ. (1982)
-Selon NCBI  (21 Jul 2010)[2] :
+Selon NCBI  (21 Jul 2010) :
 Aucuba chinensis
 Aucuba eriobotryifolia
 Aucuba himalaica
